--- a/EXP 4/T4 - final IMO - Cópia.xlsx
+++ b/EXP 4/T4 - final IMO - Cópia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\3º Ano\Labs III\LABSFISICAIII\EXP 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAIII\EXP 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7927648A-3955-4EFA-BC7C-02627384515B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC8C630-E343-4005-B4DA-7C67519762FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{8AC084CF-F7C1-414B-AB07-F8052F6533B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{8AC084CF-F7C1-414B-AB07-F8052F6533B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibração - FINAL!!!" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="63">
   <si>
     <t>Calibração B(I)</t>
   </si>
@@ -1060,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1125,6 +1125,9 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1149,7 +1152,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,7 +1175,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1234,7 +1237,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1799,7 +1802,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1837,7 +1840,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002859808"/>
@@ -1916,7 +1919,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1954,7 +1957,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1081620320"/>
@@ -2002,7 +2005,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2016,7 +2019,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2078,7 +2081,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2391,7 +2394,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2429,7 +2432,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -2515,7 +2518,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2553,7 +2556,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -2601,7 +2604,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2615,7 +2618,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2685,7 +2688,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3103,7 +3106,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3141,7 +3144,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -3228,7 +3231,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3266,7 +3269,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -3314,7 +3317,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3328,7 +3331,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3398,7 +3401,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3816,7 +3819,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3854,7 +3857,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -3941,7 +3944,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3979,7 +3982,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -4027,7 +4030,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4041,7 +4044,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4111,7 +4114,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4537,7 +4540,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4575,7 +4578,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -4684,7 +4687,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4722,7 +4725,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -4770,7 +4773,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4784,7 +4787,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4862,7 +4865,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5286,7 +5289,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5324,7 +5327,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -5433,7 +5436,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5471,7 +5474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -5519,7 +5522,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5533,7 +5536,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5611,7 +5614,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5905,7 +5908,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5943,7 +5946,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -6030,7 +6033,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6068,7 +6071,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -6116,7 +6119,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6130,7 +6133,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6200,7 +6203,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6618,7 +6621,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6656,7 +6659,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -6743,7 +6746,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6781,7 +6784,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -6829,7 +6832,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6843,7 +6846,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6913,7 +6916,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7331,7 +7334,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7369,7 +7372,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -7456,7 +7459,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7494,7 +7497,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -7542,7 +7545,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7556,7 +7559,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8359,7 +8362,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -8464,7 +8467,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -8508,7 +8511,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8522,7 +8525,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9325,7 +9328,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -9430,7 +9433,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -9474,7 +9477,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9488,7 +9491,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9550,7 +9553,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10381,7 +10384,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10419,7 +10422,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002859808"/>
@@ -10506,7 +10509,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10544,7 +10547,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1081620320"/>
@@ -10592,7 +10595,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10606,7 +10609,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10676,7 +10679,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11094,7 +11097,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11132,7 +11135,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -11241,7 +11244,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11279,7 +11282,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -11327,7 +11330,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11341,7 +11344,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11419,7 +11422,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11799,7 +11802,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11821,7 +11824,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -11837,7 +11840,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -11947,7 +11950,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11985,7 +11988,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -12033,7 +12036,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12047,7 +12050,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12125,7 +12128,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12379,7 +12382,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12417,7 +12420,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -12504,7 +12507,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12542,7 +12545,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -12590,7 +12593,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12604,7 +12607,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12682,7 +12685,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13143,7 +13146,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13181,7 +13184,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -13268,7 +13271,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13306,7 +13309,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -13354,7 +13357,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13368,7 +13371,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13430,7 +13433,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13717,7 +13720,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13755,7 +13758,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -13841,7 +13844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13879,7 +13882,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -13927,7 +13930,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13941,7 +13944,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14019,7 +14022,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14477,7 +14480,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14515,7 +14518,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -14602,7 +14605,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14640,7 +14643,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -14688,7 +14691,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14702,7 +14705,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14764,7 +14767,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15051,7 +15054,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15089,7 +15092,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -15175,7 +15178,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15213,7 +15216,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -15261,7 +15264,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15275,7 +15278,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15345,7 +15348,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15844,7 +15847,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15882,7 +15885,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -15969,7 +15972,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16007,7 +16010,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -16055,7 +16058,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16069,7 +16072,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16131,7 +16134,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16437,7 +16440,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16475,7 +16478,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -16561,7 +16564,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16599,7 +16602,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -16647,7 +16650,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16661,7 +16664,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16731,7 +16734,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17237,7 +17240,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17275,7 +17278,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002871808"/>
@@ -17362,7 +17365,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17400,7 +17403,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1088244848"/>
@@ -17448,7 +17451,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -29569,7 +29572,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -29871,65 +29874,65 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
     </row>
-    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -29958,7 +29961,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.06</v>
       </c>
@@ -29992,7 +29995,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>0.1</v>
       </c>
@@ -30025,14 +30028,14 @@
         <f t="shared" ref="J5:J33" si="4">I5*-1</f>
         <v>-1.6190338093265025E-3</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
     </row>
-    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.16</v>
       </c>
@@ -30085,7 +30088,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0.2</v>
       </c>
@@ -30138,7 +30141,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.26</v>
       </c>
@@ -30187,7 +30190,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.3</v>
       </c>
@@ -30221,7 +30224,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.35</v>
       </c>
@@ -30255,7 +30258,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>0.4</v>
       </c>
@@ -30289,7 +30292,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>0.46</v>
       </c>
@@ -30323,7 +30326,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>0.5</v>
       </c>
@@ -30357,7 +30360,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>0.55000000000000004</v>
       </c>
@@ -30391,7 +30394,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>0.61</v>
       </c>
@@ -30425,7 +30428,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>0.66</v>
       </c>
@@ -30459,7 +30462,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>0.7</v>
       </c>
@@ -30493,7 +30496,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>0.76</v>
       </c>
@@ -30527,7 +30530,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>0.8</v>
       </c>
@@ -30561,7 +30564,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>0.86</v>
       </c>
@@ -30595,7 +30598,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>0.9</v>
       </c>
@@ -30629,7 +30632,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>0.95</v>
       </c>
@@ -30663,7 +30666,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>1</v>
       </c>
@@ -30697,7 +30700,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>1.05</v>
       </c>
@@ -30731,7 +30734,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -30765,7 +30768,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -30799,7 +30802,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>1.2</v>
       </c>
@@ -30833,7 +30836,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>1.26</v>
       </c>
@@ -30867,7 +30870,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>1.3</v>
       </c>
@@ -30901,7 +30904,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>1.34</v>
       </c>
@@ -30935,7 +30938,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>1.41</v>
       </c>
@@ -30969,7 +30972,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>1.45</v>
       </c>
@@ -31003,7 +31006,7 @@
         <v>-1.6190338093265025E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>1.51</v>
       </c>
@@ -31051,131 +31054,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FF0DC3-74FC-4844-90A0-C85EA400BA75}">
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView topLeftCell="H9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView topLeftCell="H1" zoomScale="116" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="20" width="8.85546875" style="1"/>
-    <col min="21" max="21" width="10.140625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="20" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="10.109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
     </row>
-    <row r="2" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
+    <row r="2" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
     </row>
-    <row r="3" spans="1:39" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="24"/>
+      <c r="K3" s="25"/>
       <c r="M3" s="3" t="s">
         <v>20</v>
       </c>
@@ -31193,7 +31196,7 @@
         <v>41</v>
       </c>
       <c r="R3" s="2">
-        <v>6.4999999999999997E-3</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>43</v>
@@ -31215,14 +31218,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+    <row r="4" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
@@ -31252,7 +31255,7 @@
         <v>42</v>
       </c>
       <c r="R4" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>51</v>
@@ -31273,7 +31276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>-20</v>
       </c>
@@ -31315,7 +31318,7 @@
         <v>-1.0675324675324394E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>-18</v>
       </c>
@@ -31356,12 +31359,12 @@
         <f t="shared" si="2"/>
         <v>-4.8077922077919277E-3</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
       <c r="T6" s="3" t="s">
         <v>49</v>
       </c>
@@ -31369,14 +31372,14 @@
         <f>-1.60217663*10^-19</f>
         <v>-1.6021766299999999E-19</v>
       </c>
-      <c r="AA6" s="23" t="s">
+      <c r="AA6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
     </row>
-    <row r="7" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>-16</v>
       </c>
@@ -31435,22 +31438,23 @@
       </c>
       <c r="S7" s="8">
         <f>T3/(R3*P3) * N7</f>
-        <v>-0.22790836292305888</v>
+        <v>-0.14814043589998824</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="U7" s="16">
         <f>1/(S7*U6)</f>
-        <v>2.7386046786490454E+19</v>
+        <v>4.2132379671523795E+19</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="W7" s="2">
         <f>S7*'Variar B'!W3/('Variar B'!U3*R3*N7)</f>
-        <v>204.30098600163606</v>
-      </c>
+        <v>86.317166585691197</v>
+      </c>
+      <c r="Y7" s="31"/>
       <c r="AA7" s="4" t="s">
         <v>4</v>
       </c>
@@ -31465,7 +31469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>-14</v>
       </c>
@@ -31523,14 +31527,14 @@
       </c>
       <c r="S8" s="8">
         <f>SQRT((N7/((R3*P3)^2)*P3*R4)^2 + (N7/((R3*P3)^2)*R3*P4)^2 + (P3*R3/((P3*R3)^2)*N8)^2 )*T3</f>
-        <v>1.7827335602488455E-2</v>
+        <v>2.1025736082747552E-3</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="U8" s="15">
         <f>ABS((S8/(S7*S7*U6)))</f>
-        <v>2.1421778500205251E+18</v>
+        <v>5.9798952941493773E+17</v>
       </c>
       <c r="AA8" s="4" t="s">
         <v>5</v>
@@ -31545,7 +31549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>-12</v>
       </c>
@@ -31603,14 +31607,14 @@
       </c>
       <c r="S9" s="5">
         <f>S8/S7</f>
-        <v>-7.8221506985712952E-2</v>
+        <v>-1.4193110716200627E-2</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="U9" s="5">
         <f>U8/U7</f>
-        <v>7.8221506985712966E-2</v>
+        <v>1.4193110716200625E-2</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>6</v>
@@ -31625,7 +31629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>-10</v>
       </c>
@@ -31667,7 +31671,7 @@
         <v>1.5662337662337822E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>-8</v>
       </c>
@@ -31709,7 +31713,7 @@
         <v>2.5298701298703263E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>-6</v>
       </c>
@@ -31751,7 +31755,7 @@
         <v>3.3974025974027877E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>-4</v>
       </c>
@@ -31793,7 +31797,7 @@
         <v>2.4264935064935211E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>-2</v>
       </c>
@@ -31835,7 +31839,7 @@
         <v>1.2132467532467633E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -31877,7 +31881,7 @@
         <v>2.8000000000000094E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -31919,7 +31923,7 @@
         <v>-1.413246753246747E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -31961,7 +31965,7 @@
         <v>-2.0264935064935027E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -32003,7 +32007,7 @@
         <v>-3.9740259740261852E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>8</v>
       </c>
@@ -32045,7 +32049,7 @@
         <v>-4.5529870129870142E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -32087,7 +32091,7 @@
         <v>-5.662337662337702E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>12</v>
       </c>
@@ -32129,7 +32133,7 @@
         <v>-4.7948051948052961E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>14</v>
       </c>
@@ -32171,7 +32175,7 @@
         <v>-2.9272727272727783E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>16</v>
       </c>
@@ -32213,7 +32217,7 @@
         <v>-1.0059740259740324E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -32255,7 +32259,7 @@
         <v>2.6807792207792169E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -32297,107 +32301,107 @@
         <v>1.1675324675324616E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="30"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D26" s="22"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="30"/>
-      <c r="F27" s="30"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="30"/>
-      <c r="F28" s="30"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="30"/>
-      <c r="F29" s="30"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="30"/>
-      <c r="F30" s="30"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="30"/>
-      <c r="F31" s="30"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="30"/>
-      <c r="F32" s="30"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D33" s="30"/>
-      <c r="F33" s="30"/>
+    <row r="33" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D34" s="30"/>
-      <c r="F34" s="30"/>
+    <row r="34" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D35" s="30"/>
-      <c r="F35" s="30"/>
+    <row r="35" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D36" s="30"/>
-      <c r="F36" s="30"/>
+    <row r="36" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D36" s="22"/>
+      <c r="F36" s="22"/>
       <c r="AE36" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="30"/>
-      <c r="F37" s="30"/>
+    <row r="37" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D38" s="30"/>
-      <c r="F38" s="30"/>
+    <row r="38" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
-    <row r="39" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D39" s="30"/>
-      <c r="F39" s="30"/>
+    <row r="39" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
-    <row r="40" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D40" s="30"/>
-      <c r="F40" s="30"/>
+    <row r="40" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
-    <row r="41" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D41" s="30"/>
-      <c r="F41" s="30"/>
+    <row r="41" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
-    <row r="42" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D42" s="30"/>
-      <c r="F42" s="30"/>
+    <row r="42" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
-    <row r="43" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D43" s="30"/>
-      <c r="F43" s="30"/>
+    <row r="43" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D43" s="22"/>
+      <c r="F43" s="22"/>
     </row>
-    <row r="44" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D44" s="30"/>
-      <c r="F44" s="30"/>
+    <row r="44" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D44" s="22"/>
+      <c r="F44" s="22"/>
     </row>
-    <row r="45" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D45" s="30"/>
-      <c r="F45" s="30"/>
+    <row r="45" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D45" s="22"/>
+      <c r="F45" s="22"/>
     </row>
-    <row r="46" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D46" s="30"/>
-      <c r="F46" s="30"/>
+    <row r="46" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D46" s="22"/>
+      <c r="F46" s="22"/>
     </row>
-    <row r="47" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D47" s="30"/>
-      <c r="F47" s="30"/>
+    <row r="47" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D47" s="22"/>
+      <c r="F47" s="22"/>
     </row>
-    <row r="48" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D48" s="30"/>
+    <row r="48" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D48" s="22"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="30"/>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="22"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="30"/>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="22"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="30"/>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -32423,140 +32427,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92EB82E-07CD-4FA5-90BC-2985DEE818A5}">
   <dimension ref="A1:AN76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView topLeftCell="F3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="8.85546875" style="1"/>
-    <col min="22" max="22" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
     </row>
-    <row r="2" spans="1:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
+    <row r="2" spans="1:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
     </row>
-    <row r="3" spans="1:40" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="24"/>
+      <c r="L3" s="25"/>
       <c r="N3" s="3" t="s">
         <v>30</v>
       </c>
@@ -32568,7 +32572,7 @@
         <v>41</v>
       </c>
       <c r="Q3" s="2">
-        <v>6.4999999999999997E-3</v>
+        <v>0.01</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>43</v>
@@ -32590,15 +32594,15 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+    <row r="4" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
@@ -32621,7 +32625,7 @@
         <v>42</v>
       </c>
       <c r="Q4" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>42</v>
@@ -32642,7 +32646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>0.06</v>
       </c>
@@ -32686,7 +32690,7 @@
         <v>-2.5174305617842174E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.11</v>
       </c>
@@ -32729,12 +32733,12 @@
         <f t="shared" si="2"/>
         <v>-2.0175165186712141E-3</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
       <c r="U6" s="3" t="s">
         <v>49</v>
       </c>
@@ -32742,14 +32746,14 @@
         <f>-1.60217663*10^-19</f>
         <v>-1.6021766299999999E-19</v>
       </c>
-      <c r="X6" s="23" t="s">
+      <c r="X6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
     </row>
-    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0.17</v>
       </c>
@@ -32810,14 +32814,14 @@
       </c>
       <c r="T7" s="8">
         <f>S3/(Q3*O3)*O7</f>
-        <v>-0.21898072005062472</v>
+        <v>-0.14233746803290609</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="V7" s="13">
         <f>1/(T7*V6)</f>
-        <v>2.8502550766114951E+19</v>
+        <v>4.3850078101715304E+19</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>4</v>
@@ -32833,7 +32837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.21</v>
       </c>
@@ -32893,14 +32897,14 @@
       </c>
       <c r="T8" s="8">
         <f>SQRT((O7/((Q3*O3)^2)*O3*Q4)^2 + (O7/((Q3*O3)^2)*Q3*O4)^2 + (O3*Q3/((O3*Q3)^2)*O8)^2 )*S3</f>
-        <v>2.0799794775120489E-2</v>
+        <v>7.9312926815612497E-3</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="V8" s="12">
         <f>ABS((T8/(T7*T7*V6)))</f>
-        <v>2.7073032108287334E+18</v>
+        <v>2.4434030500923407E+18</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>5</v>
@@ -32915,7 +32919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.25</v>
       </c>
@@ -32975,14 +32979,14 @@
       </c>
       <c r="T9" s="6">
         <f>T8/T7</f>
-        <v>-9.4984593941932052E-2</v>
+        <v>-5.5721749102124428E-2</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="V9" s="6">
         <f>V8/V7</f>
-        <v>9.4984593941932066E-2</v>
+        <v>5.5721749102124428E-2</v>
       </c>
       <c r="X9" s="4" t="s">
         <v>6</v>
@@ -32997,7 +33001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.3</v>
       </c>
@@ -33041,7 +33045,7 @@
         <v>-1.1784315484186791E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>0.36</v>
       </c>
@@ -33085,7 +33089,7 @@
         <v>4.8205369689369171E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>0.41</v>
       </c>
@@ -33129,7 +33133,7 @@
         <v>-1.8032259993305821E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>0.45</v>
       </c>
@@ -33173,7 +33177,7 @@
         <v>3.8189897449703025E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>0.51</v>
       </c>
@@ -33217,7 +33221,7 @@
         <v>-1.8204173767411014E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>0.54</v>
       </c>
@@ -33261,7 +33265,7 @@
         <v>2.817442521003688E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>0.61</v>
       </c>
@@ -33305,7 +33309,7 @@
         <v>9.816239124585957E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>0.65</v>
       </c>
@@ -33349,7 +33353,7 @@
         <v>1.3815551469489318E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>0.71</v>
       </c>
@@ -33393,7 +33397,7 @@
         <v>9.8145199868449051E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>0.76</v>
       </c>
@@ -33437,7 +33441,7 @@
         <v>1.4813660417974939E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>0.81</v>
       </c>
@@ -33481,7 +33485,7 @@
         <v>9.8128008491049634E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>0.85</v>
       </c>
@@ -33525,7 +33529,7 @@
         <v>1.3812113194009434E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>0.91</v>
       </c>
@@ -33569,7 +33573,7 @@
         <v>9.8110817113650217E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>0.94</v>
       </c>
@@ -33613,7 +33617,7 @@
         <v>1.281056597004282E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>1.01</v>
       </c>
@@ -33657,7 +33661,7 @@
         <v>9.8093625736239698E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>1.05</v>
       </c>
@@ -33701,7 +33705,7 @@
         <v>3.8086749185284319E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -33745,7 +33749,7 @@
         <v>8.8078153496584655E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>1.1399999999999999</v>
       </c>
@@ -33789,7 +33793,7 @@
         <v>2.8071276945618173E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>1.19</v>
       </c>
@@ -33833,7 +33837,7 @@
         <v>-2.193731874308158E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>1.25</v>
       </c>
@@ -33877,7 +33881,7 @@
         <v>3.8052366430474382E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>1.31</v>
       </c>
@@ -33921,7 +33925,7 @@
         <v>-1.9579483959697441E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>1.34</v>
       </c>
@@ -33965,7 +33969,7 @@
         <v>-7.1963105809191852E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>1.39</v>
       </c>
@@ -34009,7 +34013,7 @@
         <v>-2.1971701497891516E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>1.44</v>
       </c>
@@ -34053,7 +34057,7 @@
         <v>-7.1980297186580167E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>1.49</v>
       </c>
@@ -34097,7 +34101,7 @@
         <v>-1.2198889287527992E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>1.56</v>
       </c>
@@ -34141,7 +34145,7 @@
         <v>-1.5200092683946842E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>1.6</v>
       </c>
@@ -34185,156 +34189,156 @@
         <v>-2.120078033904238E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E38" s="30"/>
-      <c r="G38" s="30"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E38" s="22"/>
+      <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E39" s="30"/>
-      <c r="G39" s="30"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E39" s="22"/>
+      <c r="G39" s="22"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E40" s="30"/>
-      <c r="G40" s="30"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E41" s="30"/>
-      <c r="G41" s="30"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E41" s="22"/>
+      <c r="G41" s="22"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E42" s="30"/>
-      <c r="G42" s="30"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E42" s="22"/>
+      <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E43" s="30"/>
-      <c r="G43" s="30"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E43" s="22"/>
+      <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E44" s="30"/>
-      <c r="G44" s="30"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E44" s="22"/>
+      <c r="G44" s="22"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E45" s="30"/>
-      <c r="G45" s="30"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E45" s="22"/>
+      <c r="G45" s="22"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="30"/>
-      <c r="G46" s="30"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E46" s="22"/>
+      <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E47" s="30"/>
-      <c r="G47" s="30"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E47" s="22"/>
+      <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E48" s="30"/>
-      <c r="G48" s="30"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E48" s="22"/>
+      <c r="G48" s="22"/>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E49" s="30"/>
-      <c r="G49" s="30"/>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="22"/>
+      <c r="G49" s="22"/>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="30"/>
-      <c r="G50" s="30"/>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E50" s="22"/>
+      <c r="G50" s="22"/>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E51" s="30"/>
-      <c r="G51" s="30"/>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E51" s="22"/>
+      <c r="G51" s="22"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="30"/>
-      <c r="G52" s="30"/>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="22"/>
+      <c r="G52" s="22"/>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E53" s="30"/>
-      <c r="G53" s="30"/>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E53" s="22"/>
+      <c r="G53" s="22"/>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="30"/>
-      <c r="G54" s="30"/>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E54" s="22"/>
+      <c r="G54" s="22"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E55" s="30"/>
-      <c r="G55" s="30"/>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E55" s="22"/>
+      <c r="G55" s="22"/>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="30"/>
-      <c r="G56" s="30"/>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E56" s="22"/>
+      <c r="G56" s="22"/>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E57" s="30"/>
-      <c r="G57" s="30"/>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E57" s="22"/>
+      <c r="G57" s="22"/>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E58" s="30"/>
-      <c r="G58" s="30"/>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E58" s="22"/>
+      <c r="G58" s="22"/>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E59" s="30"/>
-      <c r="G59" s="30"/>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E59" s="22"/>
+      <c r="G59" s="22"/>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E60" s="30"/>
-      <c r="G60" s="30"/>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E60" s="22"/>
+      <c r="G60" s="22"/>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E61" s="30"/>
-      <c r="G61" s="30"/>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E61" s="22"/>
+      <c r="G61" s="22"/>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E62" s="30"/>
-      <c r="G62" s="30"/>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E62" s="22"/>
+      <c r="G62" s="22"/>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E63" s="30"/>
-      <c r="G63" s="30"/>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E63" s="22"/>
+      <c r="G63" s="22"/>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E64" s="30"/>
-      <c r="G64" s="30"/>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E64" s="22"/>
+      <c r="G64" s="22"/>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E65" s="30"/>
-      <c r="G65" s="30"/>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E65" s="22"/>
+      <c r="G65" s="22"/>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E66" s="30"/>
-      <c r="G66" s="30"/>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E66" s="22"/>
+      <c r="G66" s="22"/>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E67" s="30"/>
-      <c r="G67" s="30"/>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E67" s="22"/>
+      <c r="G67" s="22"/>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E68" s="30"/>
-      <c r="G68" s="30"/>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E68" s="22"/>
+      <c r="G68" s="22"/>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E69" s="30"/>
-      <c r="G69" s="30"/>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E69" s="22"/>
+      <c r="G69" s="22"/>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E70" s="30"/>
-      <c r="G70" s="30"/>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E70" s="22"/>
+      <c r="G70" s="22"/>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E71" s="30"/>
-      <c r="G71" s="30"/>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E71" s="22"/>
+      <c r="G71" s="22"/>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G72" s="30"/>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G72" s="22"/>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G73" s="30"/>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G73" s="22"/>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G74" s="30"/>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G74" s="22"/>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G75" s="30"/>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G75" s="22"/>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G76" s="30"/>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G76" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -34361,116 +34365,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B19BB8-EF55-4727-8AD0-6E7366069663}">
   <dimension ref="A1:AB95"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V61" sqref="V61"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1" customWidth="1"/>
-    <col min="10" max="12" width="8.85546875" style="1"/>
-    <col min="13" max="13" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="8.85546875" style="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="1"/>
-    <col min="23" max="23" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="1"/>
+    <col min="23" max="23" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
     </row>
-    <row r="2" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
+    <row r="2" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
     </row>
-    <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="O3" s="3" t="s">
         <v>20</v>
       </c>
@@ -34495,14 +34499,14 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+    <row r="4" spans="1:28" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="3" t="s">
         <v>58</v>
       </c>
@@ -34545,7 +34549,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>35</v>
       </c>
@@ -34593,7 +34597,7 @@
         <v>-0.71419873257304411</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>37</v>
       </c>
@@ -34641,7 +34645,7 @@
         <v>-0.6778137812085816</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>39</v>
       </c>
@@ -34689,7 +34693,7 @@
         <v>-0.64397112317622596</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>41</v>
       </c>
@@ -34737,7 +34741,7 @@
         <v>-0.61054172647338267</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43</v>
       </c>
@@ -34785,7 +34789,7 @@
         <v>-0.57751785896878527</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45</v>
       </c>
@@ -34833,7 +34837,7 @@
         <v>-0.54386649236029816</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>48</v>
       </c>
@@ -34881,7 +34885,7 @@
         <v>-0.49541312485427663</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>51</v>
       </c>
@@ -34929,7 +34933,7 @@
         <v>-0.44731671439585385</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>53</v>
       </c>
@@ -34977,7 +34981,7 @@
         <v>-0.41622265742751513</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>55</v>
       </c>
@@ -35025,7 +35029,7 @@
         <v>-0.38698302357560743</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>57</v>
       </c>
@@ -35073,7 +35077,7 @@
         <v>-0.35709517740716851</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>59</v>
       </c>
@@ -35121,7 +35125,7 @@
         <v>-0.32903546075944384</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>61</v>
       </c>
@@ -35169,7 +35173,7 @@
         <v>-0.30130627111526698</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>63</v>
       </c>
@@ -35217,7 +35221,7 @@
         <v>-0.27439607680132516</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>65</v>
       </c>
@@ -35265,7 +35269,7 @@
         <v>-0.2487946147960261</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>67</v>
       </c>
@@ -35313,7 +35317,7 @@
         <v>-0.22400531310590721</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>69</v>
       </c>
@@ -35361,7 +35365,7 @@
         <v>-0.20052789138009047</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>71</v>
       </c>
@@ -35408,12 +35412,12 @@
         <f t="shared" si="6"/>
         <v>-0.17686380149973757</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="O22" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
       <c r="T22" s="3" t="s">
         <v>47</v>
       </c>
@@ -35429,7 +35433,7 @@
         <v>4.1732528387378086E-20</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>73</v>
       </c>
@@ -35504,7 +35508,7 @@
         <v>9.6202871215455622E-22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>75</v>
       </c>
@@ -35571,7 +35575,7 @@
         <v>2.305225082996696E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>77</v>
       </c>
@@ -35631,7 +35635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>79</v>
       </c>
@@ -35679,7 +35683,7 @@
         <v>-0.10192290608183335</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>81</v>
       </c>
@@ -35727,7 +35731,7 @@
         <v>-8.5743681959813731E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>83</v>
       </c>
@@ -35775,7 +35779,7 @@
         <v>-6.9988994863896925E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>85</v>
       </c>
@@ -35823,7 +35827,7 @@
         <v>-6.090094087046706E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>87</v>
       </c>
@@ -35871,7 +35875,7 @@
         <v>-4.7876810543640957E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>89</v>
       </c>
@@ -35919,7 +35923,7 @@
         <v>-3.5967431157615831E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>91</v>
       </c>
@@ -35967,7 +35971,7 @@
         <v>-3.0825835914378208E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>93</v>
       </c>
@@ -36015,7 +36019,7 @@
         <v>-2.6693632779012072E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>95</v>
       </c>
@@ -36063,7 +36067,7 @@
         <v>-2.363444709823298E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>97</v>
       </c>
@@ -36111,7 +36115,7 @@
         <v>-1.53294555529572E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>100</v>
       </c>
@@ -36159,7 +36163,7 @@
         <v>-1.9686077017254666E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>102</v>
       </c>
@@ -36207,7 +36211,7 @@
         <v>-7.5508245604000157E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>104</v>
       </c>
@@ -36255,7 +36259,7 @@
         <v>2.4608645516387972E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>106</v>
       </c>
@@ -36303,7 +36307,7 @@
         <v>8.8479369881995784E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>108</v>
       </c>
@@ -36351,7 +36355,7 @@
         <v>3.1225729175339834E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>110</v>
       </c>
@@ -36399,7 +36403,7 @@
         <v>4.7972535443644437E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>112</v>
       </c>
@@ -36447,7 +36451,7 @@
         <v>5.3853832148860192E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>114</v>
       </c>
@@ -36495,7 +36499,7 @@
         <v>6.8359916511246954E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>116</v>
       </c>
@@ -36543,7 +36547,7 @@
         <v>2.9676980844691725E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>119</v>
       </c>
@@ -36591,7 +36595,7 @@
         <v>2.7916111153102885E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>121</v>
       </c>
@@ -36639,7 +36643,7 @@
         <v>-6.0633522487789082E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>123</v>
       </c>
@@ -36687,7 +36691,7 @@
         <v>8.8582383527724406E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>125</v>
       </c>
@@ -36735,187 +36739,190 @@
         <v>-1.397863794330545E-2</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D50" s="30"/>
-      <c r="F50" s="30"/>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D50" s="22"/>
+      <c r="F50" s="22"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D51" s="30"/>
-      <c r="F51" s="30"/>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D51" s="22"/>
+      <c r="F51" s="22"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D52" s="30"/>
-      <c r="F52" s="30"/>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D52" s="22"/>
+      <c r="F52" s="22"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D53" s="30"/>
-      <c r="F53" s="30"/>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D53" s="22"/>
+      <c r="F53" s="22"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D54" s="30"/>
-      <c r="F54" s="30"/>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D54" s="22"/>
+      <c r="F54" s="22"/>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D55" s="30"/>
-      <c r="F55" s="30"/>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D55" s="22"/>
+      <c r="F55" s="22"/>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D56" s="30"/>
-      <c r="F56" s="30"/>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="M56" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="30"/>
-      <c r="F57" s="30"/>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D57" s="22"/>
+      <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D58" s="30"/>
-      <c r="F58" s="30"/>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D58" s="22"/>
+      <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D59" s="30"/>
-      <c r="F59" s="30"/>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D59" s="22"/>
+      <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D60" s="30"/>
-      <c r="F60" s="30"/>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D60" s="22"/>
+      <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D61" s="30"/>
-      <c r="F61" s="30"/>
+    <row r="61" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D61" s="22"/>
+      <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D62" s="30"/>
-      <c r="F62" s="30"/>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D62" s="22"/>
+      <c r="F62" s="22"/>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D63" s="30"/>
-      <c r="F63" s="30"/>
+    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D63" s="22"/>
+      <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D64" s="30"/>
-      <c r="F64" s="30"/>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D64" s="22"/>
+      <c r="F64" s="22"/>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D65" s="30"/>
-      <c r="F65" s="30"/>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D65" s="22"/>
+      <c r="F65" s="22"/>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D66" s="30"/>
-      <c r="F66" s="30"/>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D66" s="22"/>
+      <c r="F66" s="22"/>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D67" s="30"/>
-      <c r="F67" s="30"/>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D67" s="22"/>
+      <c r="F67" s="22"/>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D68" s="30"/>
-      <c r="F68" s="30"/>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D68" s="22"/>
+      <c r="F68" s="22"/>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D69" s="30"/>
-      <c r="F69" s="30"/>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D69" s="22"/>
+      <c r="F69" s="22"/>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D70" s="30"/>
-      <c r="F70" s="30"/>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D70" s="22"/>
+      <c r="F70" s="22"/>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D71" s="30"/>
-      <c r="F71" s="30"/>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D71" s="22"/>
+      <c r="F71" s="22"/>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D72" s="30"/>
-      <c r="F72" s="30"/>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D72" s="22"/>
+      <c r="F72" s="22"/>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D73" s="30"/>
-      <c r="F73" s="30"/>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D73" s="22"/>
+      <c r="F73" s="22"/>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D74" s="30"/>
-      <c r="F74" s="30"/>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D74" s="22"/>
+      <c r="F74" s="22"/>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="30"/>
-      <c r="F75" s="30"/>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D75" s="22"/>
+      <c r="F75" s="22"/>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D76" s="30"/>
-      <c r="F76" s="30"/>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D76" s="22"/>
+      <c r="F76" s="22"/>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D77" s="30"/>
-      <c r="F77" s="30"/>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D77" s="22"/>
+      <c r="F77" s="22"/>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D78" s="30"/>
-      <c r="F78" s="30"/>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D78" s="22"/>
+      <c r="F78" s="22"/>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D79" s="30"/>
-      <c r="F79" s="30"/>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D79" s="22"/>
+      <c r="F79" s="22"/>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="30"/>
-      <c r="F80" s="30"/>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D80" s="22"/>
+      <c r="F80" s="22"/>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="30"/>
-      <c r="F81" s="30"/>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D81" s="22"/>
+      <c r="F81" s="22"/>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D82" s="30"/>
-      <c r="F82" s="30"/>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D82" s="22"/>
+      <c r="F82" s="22"/>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D83" s="30"/>
-      <c r="F83" s="30"/>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D83" s="22"/>
+      <c r="F83" s="22"/>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D84" s="30"/>
-      <c r="F84" s="30"/>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D84" s="22"/>
+      <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D85" s="30"/>
-      <c r="F85" s="30"/>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D85" s="22"/>
+      <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D86" s="30"/>
-      <c r="F86" s="30"/>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D86" s="22"/>
+      <c r="F86" s="22"/>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D87" s="30"/>
-      <c r="F87" s="30"/>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D87" s="22"/>
+      <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D88" s="30"/>
-      <c r="F88" s="30"/>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D88" s="22"/>
+      <c r="F88" s="22"/>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D89" s="30"/>
-      <c r="F89" s="30"/>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D89" s="22"/>
+      <c r="F89" s="22"/>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D90" s="30"/>
-      <c r="F90" s="30"/>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D90" s="22"/>
+      <c r="F90" s="22"/>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D91" s="30"/>
-      <c r="F91" s="30"/>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D91" s="22"/>
+      <c r="F91" s="22"/>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D92" s="30"/>
-      <c r="F92" s="30"/>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D92" s="22"/>
+      <c r="F92" s="22"/>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D93" s="30"/>
-      <c r="F93" s="30"/>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D93" s="22"/>
+      <c r="F93" s="22"/>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D94" s="30"/>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D94" s="22"/>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D95" s="30"/>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D95" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -36939,109 +36946,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797EE30E-EAC1-4175-9775-A5AEE2DAA42E}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="AL16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="20" width="8.85546875" style="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="1"/>
+    <col min="1" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="20" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="1"/>
     <col min="23" max="23" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
     </row>
-    <row r="2" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
+    <row r="2" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
     </row>
-    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="O3" s="3" t="s">
         <v>20</v>
       </c>
@@ -37066,14 +37073,14 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+    <row r="4" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="3" t="s">
         <v>58</v>
       </c>
@@ -37116,7 +37123,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>125</v>
       </c>
@@ -37158,7 +37165,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>123</v>
       </c>
@@ -37206,7 +37213,7 @@
         <v>-8.5838609379496056E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>121</v>
       </c>
@@ -37254,7 +37261,7 @@
         <v>-1.6850012469863396E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>119</v>
       </c>
@@ -37302,7 +37309,7 @@
         <v>8.7240873184341039E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>116</v>
       </c>
@@ -37350,7 +37357,7 @@
         <v>6.7542583500102005E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>114</v>
       </c>
@@ -37398,7 +37405,7 @@
         <v>3.9056340084631103E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>112</v>
       </c>
@@ -37446,7 +37453,7 @@
         <v>-2.0000461709478445E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>110</v>
       </c>
@@ -37494,7 +37501,7 @@
         <v>8.6906407596853974E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>108</v>
       </c>
@@ -37542,7 +37549,7 @@
         <v>2.3728086502056711E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>106</v>
       </c>
@@ -37590,7 +37597,7 @@
         <v>7.7027038842902851E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>104</v>
       </c>
@@ -37638,7 +37645,7 @@
         <v>-9.5326039018245323E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>102</v>
       </c>
@@ -37686,7 +37693,7 @@
         <v>-3.1008984504515835E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>100</v>
       </c>
@@ -37734,7 +37741,7 @@
         <v>-9.1630481975363276E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>97</v>
       </c>
@@ -37776,7 +37783,7 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>95</v>
       </c>
@@ -37818,7 +37825,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>93</v>
       </c>
@@ -37860,7 +37867,7 @@
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>91</v>
       </c>
@@ -37902,7 +37909,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>89</v>
       </c>
@@ -37943,12 +37950,12 @@
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-      <c r="O22" s="23" t="s">
+      <c r="O22" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
       <c r="T22" s="3" t="s">
         <v>47</v>
       </c>
@@ -37964,7 +37971,7 @@
         <v>4.0959901866633192E-20</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>87</v>
       </c>
@@ -38033,7 +38040,7 @@
         <v>2.1265095898603592E-22</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>85</v>
       </c>
@@ -38094,7 +38101,7 @@
         <v>5.1916862417892146E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>83</v>
       </c>
@@ -38148,7 +38155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>81</v>
       </c>
@@ -38190,7 +38197,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>79</v>
       </c>
@@ -38232,7 +38239,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>77</v>
       </c>
@@ -38274,7 +38281,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>75</v>
       </c>
@@ -38316,7 +38323,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>73</v>
       </c>
@@ -38358,7 +38365,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>71</v>
       </c>
@@ -38400,7 +38407,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>69</v>
       </c>
@@ -38442,7 +38449,7 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>67</v>
       </c>
@@ -38484,7 +38491,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>65</v>
       </c>
@@ -38526,7 +38533,7 @@
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>63</v>
       </c>
@@ -38568,7 +38575,7 @@
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>61</v>
       </c>
@@ -38610,7 +38617,7 @@
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>59</v>
       </c>
@@ -38652,7 +38659,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>57</v>
       </c>
@@ -38694,7 +38701,7 @@
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>55</v>
       </c>
@@ -38736,7 +38743,7 @@
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>53</v>
       </c>
@@ -38778,7 +38785,7 @@
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>51</v>
       </c>
@@ -38820,7 +38827,7 @@
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>48</v>
       </c>
@@ -38862,7 +38869,7 @@
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45</v>
       </c>
@@ -38904,7 +38911,7 @@
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -38946,7 +38953,7 @@
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -38988,7 +38995,7 @@
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>39</v>
       </c>
@@ -39030,7 +39037,7 @@
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>37</v>
       </c>
@@ -39072,7 +39079,7 @@
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>35</v>
       </c>
@@ -39114,199 +39121,199 @@
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D50" s="30"/>
-      <c r="F50" s="30"/>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D50" s="22"/>
+      <c r="F50" s="22"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D51" s="30"/>
-      <c r="F51" s="30"/>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D51" s="22"/>
+      <c r="F51" s="22"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D52" s="30"/>
-      <c r="F52" s="30"/>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D52" s="22"/>
+      <c r="F52" s="22"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D53" s="30"/>
-      <c r="F53" s="30"/>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D53" s="22"/>
+      <c r="F53" s="22"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D54" s="30"/>
-      <c r="F54" s="30"/>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D54" s="22"/>
+      <c r="F54" s="22"/>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D55" s="30"/>
-      <c r="F55" s="30"/>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D55" s="22"/>
+      <c r="F55" s="22"/>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D56" s="30"/>
-      <c r="F56" s="30"/>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D56" s="22"/>
+      <c r="F56" s="22"/>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="30"/>
-      <c r="F57" s="30"/>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D57" s="22"/>
+      <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D58" s="30"/>
-      <c r="F58" s="30"/>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D58" s="22"/>
+      <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D59" s="30"/>
-      <c r="F59" s="30"/>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D59" s="22"/>
+      <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D60" s="30"/>
-      <c r="F60" s="30"/>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D60" s="22"/>
+      <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D61" s="30"/>
-      <c r="F61" s="30"/>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D61" s="22"/>
+      <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D62" s="30"/>
-      <c r="F62" s="30"/>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D62" s="22"/>
+      <c r="F62" s="22"/>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D63" s="30"/>
-      <c r="F63" s="30"/>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D63" s="22"/>
+      <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D64" s="30"/>
-      <c r="F64" s="30"/>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D64" s="22"/>
+      <c r="F64" s="22"/>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D65" s="30"/>
-      <c r="F65" s="30"/>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D65" s="22"/>
+      <c r="F65" s="22"/>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D66" s="30"/>
-      <c r="F66" s="30"/>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D66" s="22"/>
+      <c r="F66" s="22"/>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D67" s="30"/>
-      <c r="F67" s="30"/>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D67" s="22"/>
+      <c r="F67" s="22"/>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D68" s="30"/>
-      <c r="F68" s="30"/>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D68" s="22"/>
+      <c r="F68" s="22"/>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D69" s="30"/>
-      <c r="F69" s="30"/>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D69" s="22"/>
+      <c r="F69" s="22"/>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D70" s="30"/>
-      <c r="F70" s="30"/>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D70" s="22"/>
+      <c r="F70" s="22"/>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D71" s="30"/>
-      <c r="F71" s="30"/>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D71" s="22"/>
+      <c r="F71" s="22"/>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D72" s="30"/>
-      <c r="F72" s="30"/>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D72" s="22"/>
+      <c r="F72" s="22"/>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D73" s="30"/>
-      <c r="F73" s="30"/>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D73" s="22"/>
+      <c r="F73" s="22"/>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D74" s="30"/>
-      <c r="F74" s="30"/>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D74" s="22"/>
+      <c r="F74" s="22"/>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="30"/>
-      <c r="F75" s="30"/>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D75" s="22"/>
+      <c r="F75" s="22"/>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D76" s="30"/>
-      <c r="F76" s="30"/>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D76" s="22"/>
+      <c r="F76" s="22"/>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D77" s="30"/>
-      <c r="F77" s="30"/>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D77" s="22"/>
+      <c r="F77" s="22"/>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D78" s="30"/>
-      <c r="F78" s="30"/>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D78" s="22"/>
+      <c r="F78" s="22"/>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D79" s="30"/>
-      <c r="F79" s="30"/>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D79" s="22"/>
+      <c r="F79" s="22"/>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="30"/>
-      <c r="F80" s="30"/>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D80" s="22"/>
+      <c r="F80" s="22"/>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="30"/>
-      <c r="F81" s="30"/>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D81" s="22"/>
+      <c r="F81" s="22"/>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D82" s="30"/>
-      <c r="F82" s="30"/>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D82" s="22"/>
+      <c r="F82" s="22"/>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D83" s="30"/>
-      <c r="F83" s="30"/>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D83" s="22"/>
+      <c r="F83" s="22"/>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D84" s="30"/>
-      <c r="F84" s="30"/>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D84" s="22"/>
+      <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D85" s="30"/>
-      <c r="F85" s="30"/>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D85" s="22"/>
+      <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D86" s="30"/>
-      <c r="F86" s="30"/>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D86" s="22"/>
+      <c r="F86" s="22"/>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D87" s="30"/>
-      <c r="F87" s="30"/>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D87" s="22"/>
+      <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D88" s="30"/>
-      <c r="F88" s="30"/>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D88" s="22"/>
+      <c r="F88" s="22"/>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D89" s="30"/>
-      <c r="F89" s="30"/>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D89" s="22"/>
+      <c r="F89" s="22"/>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D90" s="30"/>
-      <c r="F90" s="30"/>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D90" s="22"/>
+      <c r="F90" s="22"/>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D91" s="30"/>
-      <c r="F91" s="30"/>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D91" s="22"/>
+      <c r="F91" s="22"/>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D92" s="30"/>
-      <c r="F92" s="30"/>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D92" s="22"/>
+      <c r="F92" s="22"/>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D93" s="30"/>
-      <c r="F93" s="30"/>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D93" s="22"/>
+      <c r="F93" s="22"/>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D94" s="30"/>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D94" s="22"/>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D95" s="30"/>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D95" s="22"/>
     </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D96" s="30"/>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D96" s="22"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="30"/>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" s="22"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="30"/>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D98" s="22"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D99" s="30"/>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="22"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:A49">
